--- a/lm-be-careplan.xlsx
+++ b/lm-be-careplan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="361">
   <si>
     <t>Path</t>
   </si>
@@ -153,7 +153,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -185,6 +185,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>CarePlan.implicitRules</t>
   </si>
   <si>
@@ -301,6 +305,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>CarePlan.modifierExtension</t>
   </si>
   <si>
@@ -415,7 +423,7 @@
     <t>CarePlan.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | completed | entered-in-error | cancelled | unknown</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
@@ -431,7 +439,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
   </si>
   <si>
     <t>CarePlan.intent</t>
@@ -452,7 +460,7 @@
     <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.1</t>
   </si>
   <si>
     <t>CarePlan.category</t>
@@ -486,10 +494,6 @@
     <t>CarePlan.title</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Human-friendly name for the care plan</t>
   </si>
   <si>
@@ -698,8 +702,8 @@
     <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}</t>
+    <t>cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>CarePlan.activity.id</t>
@@ -828,10 +832,6 @@
     <t>Details in a simple form for generic care plan systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>CarePlan.activity.detail.id</t>
   </si>
   <si>
@@ -844,7 +844,7 @@
     <t>CarePlan.activity.detail.kind</t>
   </si>
   <si>
-    <t>Kind of resource</t>
+    <t>Appointment | CommunicationRequest | DeviceRequest | MedicationRequest | NutritionOrder | Task | ServiceRequest | VisionPrescription</t>
   </si>
   <si>
     <t>A description of the kind of resource the in-line definition of a care plan activity is representing.  The CarePlan.activity.detail is an in-line definition when a resource is not referenced using CarePlan.activity.reference.  For example, a MedicationRequest, a ServiceRequest, or a CommunicationRequest.</t>
@@ -856,7 +856,7 @@
     <t>Resource types defined as part of FHIR that can be represented as in-line definitions of a care plan activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-kind|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-kind|4.0.1</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.instantiatesCanonical</t>
@@ -964,7 +964,7 @@
     <t>Codes that reflect the current state of a care plan activity within its overall life cycle.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-status|4.0.1</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.statusReason</t>
@@ -1121,8 +1121,26 @@
     <t>Used to capture information that applies to the plan as a whole that doesn't fit into discrete elements.</t>
   </si>
   <si>
+    <t>draft | active | suspended | completed | entered-in-error | cancelled | unknown</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}
 </t>
+  </si>
+  <si>
+    <t>Kind of resource</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-kind|4.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-status|4.0.0</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.scheduled</t>
@@ -1300,7 +1318,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="126.48046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1720,12 +1738,12 @@
         <v>39</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1748,16 +1766,16 @@
         <v>44</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1807,7 +1825,7 @@
         <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -1819,12 +1837,12 @@
         <v>39</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1847,16 +1865,16 @@
         <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1882,13 +1900,13 @@
         <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>39</v>
@@ -1906,7 +1924,7 @@
         <v>39</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1918,16 +1936,16 @@
         <v>39</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1946,16 +1964,16 @@
         <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2005,7 +2023,7 @@
         <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
@@ -2017,16 +2035,16 @@
         <v>39</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2045,16 +2063,16 @@
         <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2104,7 +2122,7 @@
         <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -2121,11 +2139,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2144,16 +2162,16 @@
         <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2203,7 +2221,7 @@
         <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -2215,16 +2233,16 @@
         <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2243,19 +2261,19 @@
         <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>39</v>
@@ -2304,7 +2322,7 @@
         <v>39</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>37</v>
@@ -2316,12 +2334,12 @@
         <v>39</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2344,19 +2362,19 @@
         <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>39</v>
@@ -2405,7 +2423,7 @@
         <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>37</v>
@@ -2417,12 +2435,12 @@
         <v>39</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2445,13 +2463,13 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2502,7 +2520,7 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>37</v>
@@ -2514,12 +2532,12 @@
         <v>39</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2542,16 +2560,16 @@
         <v>44</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2601,7 +2619,7 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
@@ -2613,16 +2631,16 @@
         <v>39</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2641,17 +2659,17 @@
         <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>39</v>
@@ -2700,7 +2718,7 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
@@ -2712,16 +2730,16 @@
         <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2740,19 +2758,19 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -2801,7 +2819,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
@@ -2813,12 +2831,12 @@
         <v>39</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2841,16 +2859,16 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2900,7 +2918,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
@@ -2912,12 +2930,12 @@
         <v>39</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2940,19 +2958,19 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -2977,31 +2995,31 @@
         <v>39</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3013,12 +3031,12 @@
         <v>39</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3041,19 +3059,19 @@
         <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>39</v>
@@ -3078,13 +3096,13 @@
         <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>39</v>
@@ -3102,7 +3120,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3114,12 +3132,12 @@
         <v>39</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3142,19 +3160,19 @@
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>39</v>
@@ -3179,13 +3197,13 @@
         <v>39</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>39</v>
@@ -3203,7 +3221,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
@@ -3215,12 +3233,12 @@
         <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3243,13 +3261,13 @@
         <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3300,7 +3318,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>37</v>
@@ -3312,12 +3330,12 @@
         <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3340,17 +3358,17 @@
         <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3399,7 +3417,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
@@ -3411,16 +3429,16 @@
         <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3439,13 +3457,13 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3496,7 +3514,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -3508,12 +3526,12 @@
         <v>39</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3536,16 +3554,16 @@
         <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3595,7 +3613,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>37</v>
@@ -3607,16 +3625,16 @@
         <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3635,19 +3653,19 @@
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
@@ -3696,7 +3714,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>37</v>
@@ -3708,16 +3726,16 @@
         <v>39</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3736,13 +3754,13 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3793,7 +3811,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>37</v>
@@ -3805,12 +3823,12 @@
         <v>39</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3833,16 +3851,16 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3892,7 +3910,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>37</v>
@@ -3904,12 +3922,12 @@
         <v>39</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3932,16 +3950,16 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3991,7 +4009,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>37</v>
@@ -4003,12 +4021,12 @@
         <v>39</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4031,17 +4049,17 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4090,7 +4108,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>37</v>
@@ -4102,12 +4120,12 @@
         <v>39</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4130,19 +4148,19 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>39</v>
@@ -4191,7 +4209,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>37</v>
@@ -4203,12 +4221,12 @@
         <v>39</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4231,19 +4249,19 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4292,7 +4310,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>37</v>
@@ -4304,12 +4322,12 @@
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4332,19 +4350,19 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>39</v>
@@ -4393,7 +4411,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>37</v>
@@ -4405,12 +4423,12 @@
         <v>39</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4433,17 +4451,17 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>39</v>
@@ -4492,7 +4510,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>37</v>
@@ -4504,12 +4522,12 @@
         <v>39</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4532,13 +4550,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4589,7 +4607,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>37</v>
@@ -4606,11 +4624,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4629,16 +4647,16 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4688,7 +4706,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>37</v>
@@ -4700,16 +4718,16 @@
         <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4728,19 +4746,19 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -4789,7 +4807,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>37</v>
@@ -4801,12 +4819,12 @@
         <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4829,16 +4847,16 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -4864,13 +4882,13 @@
         <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>39</v>
@@ -4888,7 +4906,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>37</v>
@@ -4900,12 +4918,12 @@
         <v>39</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4928,19 +4946,19 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -4989,7 +5007,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>37</v>
@@ -5001,12 +5019,12 @@
         <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5029,19 +5047,19 @@
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5090,7 +5108,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>37</v>
@@ -5102,12 +5120,12 @@
         <v>39</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5130,19 +5148,19 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5191,7 +5209,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>37</v>
@@ -5200,15 +5218,15 @@
         <v>43</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5231,17 +5249,17 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5290,7 +5308,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>37</v>
@@ -5299,10 +5317,10 @@
         <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>257</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" hidden="true">
@@ -5330,13 +5348,13 @@
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5387,7 +5405,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>37</v>
@@ -5408,7 +5426,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5427,16 +5445,16 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5486,7 +5504,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>37</v>
@@ -5498,7 +5516,7 @@
         <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -5507,7 +5525,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5526,19 +5544,19 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>39</v>
@@ -5587,7 +5605,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>37</v>
@@ -5599,7 +5617,7 @@
         <v>39</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" hidden="true">
@@ -5627,7 +5645,7 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>262</v>
@@ -5662,7 +5680,7 @@
         <v>39</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="X44" t="s" s="2">
         <v>265</v>
@@ -5698,7 +5716,7 @@
         <v>39</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" hidden="true">
@@ -5729,7 +5747,7 @@
         <v>268</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>269</v>
@@ -5797,7 +5815,7 @@
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" hidden="true">
@@ -5825,16 +5843,16 @@
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>272</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>270</v>
@@ -5898,7 +5916,7 @@
         <v>39</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" hidden="true">
@@ -5926,7 +5944,7 @@
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>274</v>
@@ -5963,7 +5981,7 @@
         <v>39</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>278</v>
@@ -5999,7 +6017,7 @@
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" hidden="true">
@@ -6027,7 +6045,7 @@
         <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>281</v>
@@ -6062,7 +6080,7 @@
         <v>39</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="X48" t="s" s="2">
         <v>284</v>
@@ -6098,7 +6116,7 @@
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -6197,7 +6215,7 @@
         <v>39</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" hidden="true">
@@ -6225,7 +6243,7 @@
         <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>292</v>
@@ -6296,7 +6314,7 @@
         <v>39</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -6324,7 +6342,7 @@
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>296</v>
@@ -6361,7 +6379,7 @@
         <v>39</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>300</v>
@@ -6397,7 +6415,7 @@
         <v>39</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" hidden="true">
@@ -6425,7 +6443,7 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>303</v>
@@ -6496,7 +6514,7 @@
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" hidden="true">
@@ -6599,7 +6617,7 @@
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" hidden="true">
@@ -6698,7 +6716,7 @@
         <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" hidden="true">
@@ -6799,7 +6817,7 @@
         <v>39</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" hidden="true">
@@ -6900,7 +6918,7 @@
         <v>39</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" hidden="true">
@@ -6961,7 +6979,7 @@
         <v>39</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="X57" t="s" s="2">
         <v>333</v>
@@ -6997,7 +7015,7 @@
         <v>39</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" hidden="true">
@@ -7096,7 +7114,7 @@
         <v>39</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" hidden="true">
@@ -7193,7 +7211,7 @@
         <v>39</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -7221,7 +7239,7 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>345</v>
@@ -7290,7 +7308,7 @@
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -7318,7 +7336,7 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>348</v>
@@ -7389,12 +7407,12 @@
         <v>39</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7417,19 +7435,19 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>39</v>
@@ -7491,7 +7509,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7514,13 +7532,13 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7584,7 +7602,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7607,16 +7625,16 @@
         <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -7679,11 +7697,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -7702,17 +7720,17 @@
         <v>44</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>39</v>
@@ -7774,11 +7792,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -7797,19 +7815,19 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -7871,7 +7889,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -7894,16 +7912,16 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -7966,7 +7984,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -7989,19 +8007,19 @@
         <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>127</v>
+        <v>351</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
@@ -8026,13 +8044,13 @@
         <v>39</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>132</v>
+        <v>352</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>39</v>
@@ -8063,7 +8081,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8086,19 +8104,19 @@
         <v>44</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>39</v>
@@ -8123,13 +8141,13 @@
         <v>39</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>139</v>
+        <v>353</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>39</v>
@@ -8160,7 +8178,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8183,19 +8201,19 @@
         <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>39</v>
@@ -8220,13 +8238,13 @@
         <v>39</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>39</v>
@@ -8257,7 +8275,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8280,13 +8298,13 @@
         <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8350,7 +8368,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8373,17 +8391,17 @@
         <v>44</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>39</v>
@@ -8445,11 +8463,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -8468,13 +8486,13 @@
         <v>44</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -8538,7 +8556,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8561,16 +8579,16 @@
         <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -8633,11 +8651,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -8656,19 +8674,19 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>39</v>
@@ -8730,11 +8748,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -8753,13 +8771,13 @@
         <v>44</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -8823,7 +8841,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -8846,16 +8864,16 @@
         <v>44</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -8918,7 +8936,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -8941,16 +8959,16 @@
         <v>39</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9013,7 +9031,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9036,17 +9054,17 @@
         <v>39</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>39</v>
@@ -9108,7 +9126,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9131,19 +9149,19 @@
         <v>44</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>39</v>
@@ -9205,7 +9223,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9228,19 +9246,19 @@
         <v>39</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>39</v>
@@ -9302,7 +9320,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9325,19 +9343,19 @@
         <v>39</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>39</v>
@@ -9399,7 +9417,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9422,17 +9440,17 @@
         <v>39</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>39</v>
@@ -9489,12 +9507,12 @@
         <v>39</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9517,16 +9535,16 @@
         <v>39</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -9552,13 +9570,13 @@
         <v>39</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>39</v>
@@ -9589,7 +9607,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -9612,19 +9630,19 @@
         <v>39</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>39</v>
@@ -9686,7 +9704,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -9709,19 +9727,19 @@
         <v>39</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>39</v>
@@ -9783,7 +9801,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -9806,19 +9824,19 @@
         <v>39</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>39</v>
@@ -9872,7 +9890,7 @@
       </c>
       <c r="AG87" s="2"/>
       <c r="AH87" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>39</v>
@@ -9880,7 +9898,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -9903,17 +9921,17 @@
         <v>39</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>39</v>
@@ -9967,7 +9985,7 @@
       </c>
       <c r="AG88" s="2"/>
       <c r="AH88" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>39</v>
@@ -9998,10 +10016,10 @@
         <v>39</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="L89" t="s" s="2">
         <v>263</v>
@@ -10033,13 +10051,13 @@
         <v>39</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="X89" t="s" s="2">
         <v>265</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>266</v>
+        <v>356</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>39</v>
@@ -10096,7 +10114,7 @@
         <v>268</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>269</v>
@@ -10188,16 +10206,16 @@
         <v>39</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>272</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>270</v>
@@ -10285,7 +10303,7 @@
         <v>39</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>274</v>
@@ -10322,7 +10340,7 @@
         <v>39</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="X92" t="s" s="2">
         <v>278</v>
@@ -10382,7 +10400,7 @@
         <v>39</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>281</v>
@@ -10417,7 +10435,7 @@
         <v>39</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="X93" t="s" s="2">
         <v>284</v>
@@ -10572,7 +10590,7 @@
         <v>39</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>292</v>
@@ -10667,7 +10685,7 @@
         <v>39</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>296</v>
@@ -10704,13 +10722,13 @@
         <v>39</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="X96" t="s" s="2">
         <v>300</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>301</v>
+        <v>357</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>39</v>
@@ -10764,7 +10782,7 @@
         <v>39</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>303</v>
@@ -10935,7 +10953,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -10958,7 +10976,7 @@
         <v>39</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>315</v>
@@ -11224,7 +11242,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -11247,7 +11265,7 @@
         <v>39</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>331</v>
@@ -11280,7 +11298,7 @@
         <v>39</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="X102" t="s" s="2">
         <v>333</v>
@@ -11528,7 +11546,7 @@
         <v>39</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>345</v>
@@ -11621,7 +11639,7 @@
         <v>39</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>348</v>
